--- a/src/main/resources/com/relative/QuskyOro/Matrices/MensajesErrores.xlsx
+++ b/src/main/resources/com/relative/QuskyOro/Matrices/MensajesErrores.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maricela BF\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extre\Documents\proyectos\proyectos drools\QuskyOro\src\main\resources\com\relative\QuskyOro\Matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFFFAD1-742F-4F60-BBF0-89117E2121B8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7050"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -22,23 +23,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>r06xd</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -257,9 +252,6 @@
     <t>variablesNegocio.getCodigoPolitica().contains("$param")</t>
   </si>
   <si>
-    <t>com.relative.brecreditosnuevos.objetosnegocio.SimularResult,com.relative.brecreditosnuevos.objetosnegocio.VariablesNegocio</t>
-  </si>
-  <si>
     <t>&amp;&amp;</t>
   </si>
   <si>
@@ -279,12 +271,15 @@
   </si>
   <si>
     <t>variablesNegocio.setMensaje(variablesNegocio.getMensaje()+"^;"+"$param");</t>
+  </si>
+  <si>
+    <t>com.relative.QuskyOro.ObjetosNegocio.SimularResult,com.relative.QuskyOro.ObjetosNegocio.VariablesNegocio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -471,7 +466,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Texto explicativo" xfId="1" builtinId="53"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -789,22 +784,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="6" width="30.7109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="1" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="6" width="30.6640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -816,7 +811,7 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -826,13 +821,13 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="9"/>
@@ -840,7 +835,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>34</v>
@@ -852,7 +847,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
         <v>4</v>
@@ -876,7 +871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="2" t="s">
@@ -890,7 +885,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="7"/>
       <c r="C7" s="10" t="s">
@@ -900,19 +895,19 @@
         <v>61</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="H7" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>57</v>
       </c>
@@ -938,7 +933,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -961,10 +956,10 @@
         <v>49</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -987,10 +982,10 @@
         <v>50</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -1013,10 +1008,10 @@
         <v>59</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -1039,10 +1034,10 @@
         <v>53</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -1065,10 +1060,10 @@
         <v>54</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -1091,10 +1086,10 @@
         <v>55</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -1117,10 +1112,10 @@
         <v>56</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
@@ -1143,12 +1138,12 @@
         <v>45</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>7</v>
@@ -1166,13 +1161,13 @@
         <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -1192,13 +1187,13 @@
         <v>2</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -1218,13 +1213,13 @@
         <v>2</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
@@ -1244,13 +1239,13 @@
         <v>2</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
@@ -1270,13 +1265,13 @@
         <v>2</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
@@ -1296,13 +1291,13 @@
         <v>2</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
@@ -1322,13 +1317,13 @@
         <v>2</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>16</v>
       </c>
@@ -1348,13 +1343,13 @@
         <v>2</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
@@ -1374,13 +1369,13 @@
         <v>2</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
@@ -1400,13 +1395,13 @@
         <v>2</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H26" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>19</v>
       </c>
@@ -1426,13 +1421,13 @@
         <v>2</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H27" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
@@ -1452,13 +1447,13 @@
         <v>2</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
@@ -1478,13 +1473,13 @@
         <v>2</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
@@ -1504,13 +1499,13 @@
         <v>2</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
@@ -1530,13 +1525,13 @@
         <v>2</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>29</v>
       </c>
@@ -1556,13 +1551,13 @@
         <v>2</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
@@ -1582,13 +1577,13 @@
         <v>2</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
@@ -1608,7 +1603,7 @@
         <v>2</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>47</v>

--- a/src/main/resources/com/relative/QuskyOro/Matrices/MensajesErrores.xlsx
+++ b/src/main/resources/com/relative/QuskyOro/Matrices/MensajesErrores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extre\Documents\proyectos\proyectos drools\QuskyOro\src\main\resources\com\relative\QuskyOro\Matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFFFAD1-742F-4F60-BBF0-89117E2121B8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9E5F02-0176-4FB8-8877-8B9591036F34}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,7 +273,7 @@
     <t>variablesNegocio.setMensaje(variablesNegocio.getMensaje()+"^;"+"$param");</t>
   </si>
   <si>
-    <t>com.relative.QuskyOro.ObjetosNegocio.SimularResult,com.relative.QuskyOro.ObjetosNegocio.VariablesNegocio</t>
+    <t>com.relative.QuskiOro.ObjetosNegocio.SimularResult,com.relative.QuskiOro.ObjetosNegocio.VariablesNegocio</t>
   </si>
 </sst>
 </file>
@@ -788,7 +788,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
